--- a/data/elections/not_imputed/Congressional Elections (2004).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2004).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303636D-0632-3345-8E19-30E786565FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F69BC-7662-EF4D-A56C-E8BDA17BCFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1120" windowWidth="21360" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Alabama</t>
   </si>
@@ -760,13 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:G1048576"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,50 +781,50 @@
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2004</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="11">
         <v>1079657</v>
@@ -856,15 +853,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2004</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="11">
         <v>213216</v>
@@ -893,15 +890,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2004</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="11">
         <v>1127591</v>
@@ -930,15 +927,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2004</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="11">
         <v>357840</v>
@@ -967,15 +964,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="11">
         <v>5030821</v>
@@ -1004,15 +1001,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2004</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="11">
         <v>991835</v>
@@ -1041,15 +1038,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2004</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="11">
         <v>629934</v>
@@ -1078,15 +1075,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="11">
         <v>245978</v>
@@ -1115,15 +1112,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2004</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="11">
         <v>3319296</v>
@@ -1151,19 +1148,16 @@
       <c r="K10" s="1">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2004</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="11">
         <v>1819817</v>
@@ -1192,15 +1186,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2004</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>148443</v>
@@ -1229,15 +1223,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="11">
         <v>401366</v>
@@ -1266,15 +1260,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2004</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="11">
         <v>2271676</v>
@@ -1303,15 +1297,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2004</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="11">
         <v>1381699</v>
@@ -1340,15 +1334,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2004</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="11">
         <v>822653</v>
@@ -1382,10 +1376,10 @@
         <v>2004</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="11">
         <v>723794</v>
@@ -1419,10 +1413,10 @@
         <v>2004</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
       </c>
       <c r="D18" s="11">
         <v>1017379</v>
@@ -1456,10 +1450,10 @@
         <v>2004</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
       <c r="D19" s="11">
         <v>780433</v>
@@ -1493,10 +1487,10 @@
         <v>2004</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="11">
         <v>283210</v>
@@ -1530,10 +1524,10 @@
         <v>2004</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
       <c r="D21" s="11">
         <v>896232</v>
@@ -1567,10 +1561,10 @@
         <v>2004</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
       </c>
       <c r="D22" s="11">
         <v>435239</v>
@@ -1604,10 +1598,10 @@
         <v>2004</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
       </c>
       <c r="D23" s="11">
         <v>2288594</v>
@@ -1641,10 +1635,10 @@
         <v>2004</v>
       </c>
       <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
       </c>
       <c r="D24" s="11">
         <v>1236094</v>
@@ -1678,10 +1672,10 @@
         <v>2004</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
       </c>
       <c r="D25" s="11">
         <v>658589</v>
@@ -1715,10 +1709,10 @@
         <v>2004</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
       </c>
       <c r="D26" s="11">
         <v>1429767</v>
@@ -1752,10 +1746,10 @@
         <v>2004</v>
       </c>
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="11">
         <v>286076</v>
@@ -1789,10 +1783,10 @@
         <v>2004</v>
       </c>
       <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="11">
         <v>515115</v>
@@ -1826,10 +1820,10 @@
         <v>2004</v>
       </c>
       <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="11">
         <v>420711</v>
@@ -1863,10 +1857,10 @@
         <v>2004</v>
       </c>
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="11">
         <v>396024</v>
@@ -1900,10 +1894,10 @@
         <v>2004</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
       <c r="D31" s="11">
         <v>1514784</v>
@@ -1937,10 +1931,10 @@
         <v>2004</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
       <c r="D32" s="11">
         <v>357805</v>
@@ -1974,10 +1968,10 @@
         <v>2004</v>
       </c>
       <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
       </c>
       <c r="D33" s="11">
         <v>2209291</v>
@@ -2011,10 +2005,10 @@
         <v>2004</v>
       </c>
       <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
       </c>
       <c r="D34" s="11">
         <v>1743131</v>
@@ -2048,10 +2042,10 @@
         <v>2004</v>
       </c>
       <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
       </c>
       <c r="D35" s="11">
         <v>125684</v>
@@ -2085,10 +2079,10 @@
         <v>2004</v>
       </c>
       <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
       <c r="D36" s="11">
         <v>2650122</v>
@@ -2122,10 +2116,10 @@
         <v>2004</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
       </c>
       <c r="D37" s="11">
         <v>875033</v>
@@ -2159,10 +2153,10 @@
         <v>2004</v>
       </c>
       <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
       </c>
       <c r="D38" s="11">
         <v>761545</v>
@@ -2196,10 +2190,10 @@
         <v>2004</v>
       </c>
       <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
       </c>
       <c r="D39" s="11">
         <v>2565077</v>
@@ -2233,10 +2227,10 @@
         <v>2004</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
       </c>
       <c r="D40" s="11">
         <v>112958</v>
@@ -2270,10 +2264,10 @@
         <v>2004</v>
       </c>
       <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
       </c>
       <c r="D41" s="11">
         <v>913168</v>
@@ -2307,10 +2301,10 @@
         <v>2004</v>
       </c>
       <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
       <c r="D42" s="11">
         <v>178823</v>
@@ -2344,10 +2338,10 @@
         <v>2004</v>
       </c>
       <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
       <c r="D43" s="11">
         <v>1160821</v>
@@ -2381,10 +2375,10 @@
         <v>2004</v>
       </c>
       <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
       </c>
       <c r="D44" s="11">
         <v>4012534</v>
@@ -2418,10 +2412,10 @@
         <v>2004</v>
       </c>
       <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
       </c>
       <c r="D45" s="11">
         <v>520403</v>
@@ -2455,10 +2449,10 @@
         <v>2004</v>
       </c>
       <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
       </c>
       <c r="D46" s="11">
         <v>74271</v>
@@ -2492,10 +2486,10 @@
         <v>2004</v>
       </c>
       <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
       </c>
       <c r="D47" s="11">
         <v>1817422</v>
@@ -2529,10 +2523,10 @@
         <v>2004</v>
       </c>
       <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
       </c>
       <c r="D48" s="11">
         <v>1095493</v>
@@ -2566,10 +2560,10 @@
         <v>2004</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
       </c>
       <c r="D49" s="11">
         <v>303042</v>
@@ -2603,10 +2597,10 @@
         <v>2004</v>
       </c>
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
       </c>
       <c r="D50" s="11">
         <v>1380819</v>
@@ -2640,10 +2634,10 @@
         <v>2004</v>
       </c>
       <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
       </c>
       <c r="D51" s="11">
         <v>132107</v>

--- a/data/elections/not_imputed/Congressional Elections (2004).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2004).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F69BC-7662-EF4D-A56C-E8BDA17BCFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C3C7F-E2DF-3045-BE78-EA7DD65D02AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1120" windowWidth="21360" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,14 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -412,14 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -462,21 +446,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,7 +745,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,18 +753,18 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -791,16 +773,16 @@
       <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -826,20 +808,20 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>1079657</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>708425</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <f t="shared" ref="F2:F51" si="0">G2-E2-D2</f>
         <v>4677</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>1792759</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f t="shared" ref="H2:H51" si="1">K2-I2-J2</f>
         <v>5</v>
       </c>
@@ -863,20 +845,20 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>213216</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>67074</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>19706</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>299996</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -900,20 +882,20 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>1127591</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>597526</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>146328</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>1871445</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -937,20 +919,20 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>357840</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>426380</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>7020</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>791240</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -974,20 +956,20 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>5030821</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>6223698</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>369234</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>11623753</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1011,20 +993,20 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>991835</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>995283</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>51893</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>2039011</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1048,20 +1030,20 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>629934</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>785747</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>13057</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>1428738</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1085,20 +1067,20 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>245978</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>105716</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>4351</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>356045</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1122,20 +1104,20 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>3319296</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>2212324</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>95874</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>5627494</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1159,20 +1141,20 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>1819817</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>1140869</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>2960763</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1196,20 +1178,20 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>148443</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>261884</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>6243</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>416570</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1233,20 +1215,20 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>401366</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>171060</v>
       </c>
-      <c r="F13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
         <v>572426</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1270,20 +1252,20 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>2271676</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>2675273</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>41716</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>4988665</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1307,20 +1289,20 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>1381699</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>999082</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>35470</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>2416251</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1344,20 +1326,20 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>822653</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>624620</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>10888</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>1458161</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1381,20 +1363,20 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>723794</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>386970</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>45619</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>1156383</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1418,20 +1400,20 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>1017379</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>602085</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>15779</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>1635243</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1455,20 +1437,20 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>780433</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>478182</v>
       </c>
-      <c r="F19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
         <v>1258615</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1492,20 +1474,20 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>283210</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>418380</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>8586</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>710176</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1529,20 +1511,20 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>896232</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>1310791</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>46497</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>2253520</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1566,20 +1548,20 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>435239</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>2059984</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>432232</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>2927455</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1603,20 +1585,20 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>2288594</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>2242435</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>100300</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>4631329</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1640,20 +1622,20 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>1236094</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>1399624</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>85963</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>2721681</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1677,20 +1659,20 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>658589</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>334605</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>123009</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>1116203</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1714,20 +1696,20 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>1429767</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>1192674</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>44582</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>2667023</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1751,20 +1733,20 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>286076</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>145606</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>12548</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>444230</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1788,20 +1770,20 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>515115</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>230697</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <f t="shared" si="0"/>
         <v>19160</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <v>764972</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1825,20 +1807,20 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>420711</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>333912</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>36810</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>791433</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1862,20 +1844,20 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <v>396024</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <v>243506</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>12036</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>651566</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1899,20 +1881,20 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <v>1514784</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>1721392</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>48419</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <v>3284595</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1936,20 +1918,20 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>357805</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>384900</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <v>742899</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1973,20 +1955,20 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>2209291</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>3457124</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>1781388</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <v>7447803</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2010,20 +1992,20 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>1743131</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <v>1669864</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="10">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>3413071</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2047,20 +2029,20 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>125684</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>185130</v>
       </c>
-      <c r="F35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
+      <c r="F35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
         <v>310814</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2084,20 +2066,20 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>2650122</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>2514613</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="10">
         <f t="shared" si="0"/>
         <v>18771</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>5183506</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2121,20 +2103,20 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>875033</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <v>389029</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="10">
         <f t="shared" si="0"/>
         <v>110548</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>1374610</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2158,20 +2140,20 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <v>761545</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>951688</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="10">
         <f t="shared" si="0"/>
         <v>59073</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>1772306</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2195,20 +2177,20 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>2565077</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>2478239</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="10">
         <f t="shared" si="0"/>
         <v>107819</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>5151135</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2232,20 +2214,20 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>112958</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>279315</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="10">
         <f t="shared" si="0"/>
         <v>9902</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>402175</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2269,20 +2251,20 @@
       <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>913168</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="10">
         <v>486479</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="10">
         <f t="shared" si="0"/>
         <v>39471</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <v>1439118</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2306,20 +2288,20 @@
       <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <v>178823</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="10">
         <v>207837</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="10">
         <f t="shared" si="0"/>
         <v>2808</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <v>389468</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2343,20 +2325,20 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <v>1160821</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="10">
         <v>1031959</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <f t="shared" si="0"/>
         <v>25958</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="10">
         <v>2218738</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2380,20 +2362,20 @@
       <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <v>4012534</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="10">
         <v>2713968</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="10">
         <f t="shared" si="0"/>
         <v>232101</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="10">
         <v>6958603</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2417,20 +2399,20 @@
       <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <v>520403</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="10">
         <v>361628</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="10">
         <f t="shared" si="0"/>
         <v>26826</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="10">
         <v>908857</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2454,20 +2436,20 @@
       <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>74271</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="10">
         <v>21684</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="10">
         <f t="shared" si="0"/>
         <v>209053</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="10">
         <v>305008</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2491,20 +2473,20 @@
       <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>1817422</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="10">
         <v>1023187</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="10">
         <f t="shared" si="0"/>
         <v>163398</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="10">
         <v>3004007</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2528,20 +2510,20 @@
       <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>1095493</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="10">
         <v>1608751</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="10">
         <f t="shared" si="0"/>
         <v>25751</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="10">
         <v>2729995</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2565,20 +2547,20 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <v>303042</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <v>415396</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="10">
         <f t="shared" si="0"/>
         <v>3218</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="10">
         <v>721656</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2602,20 +2584,20 @@
       <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="9">
         <v>1380819</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="10">
         <v>1368537</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="10">
         <f t="shared" si="0"/>
         <v>72257</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="10">
         <v>2821613</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2639,20 +2621,20 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>132107</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="10">
         <v>99989</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="10">
         <f t="shared" si="0"/>
         <v>7067</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="10">
         <v>239163</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>

--- a/data/elections/not_imputed/Congressional Elections (2004).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2004).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C3C7F-E2DF-3045-BE78-EA7DD65D02AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472EA23-E6AA-C54D-ACFB-126468753F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="1120" windowWidth="21360" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
+    <sheet name="UPDATED" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$K$1:$K$51</definedName>
+    <definedName name="Congressional_Elections__2004" localSheetId="1">UPDATED!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{1539FA4E-B5D1-3F40-8F0E-859A5BBED30B}" name="Congressional Elections (2004)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/Congressional Elections (2004).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>Alabama</t>
   </si>
@@ -374,13 +397,19 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Vote share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,6 +435,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,10 +479,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -459,9 +496,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -474,6 +514,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Congressional Elections (2004)" connectionId="1" xr16:uid="{B74907BA-AEC0-BC4F-8A8E-88880BE837C8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,13 +783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,14 +859,12 @@
         <v>708425</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F51" si="0">G2-E2-D2</f>
         <v>4677</v>
       </c>
       <c r="G2" s="10">
         <v>1792759</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H51" si="1">K2-I2-J2</f>
         <v>5</v>
       </c>
       <c r="I2" s="1">
@@ -852,14 +894,12 @@
         <v>67074</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" si="0"/>
         <v>19706</v>
       </c>
       <c r="G3" s="10">
         <v>299996</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I3" s="1">
@@ -889,14 +929,12 @@
         <v>597526</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" si="0"/>
         <v>146328</v>
       </c>
       <c r="G4" s="10">
         <v>1871445</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I4" s="1">
@@ -926,14 +964,12 @@
         <v>426380</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="0"/>
         <v>7020</v>
       </c>
       <c r="G5" s="10">
         <v>791240</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="1">
@@ -963,14 +999,12 @@
         <v>6223698</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="0"/>
         <v>369234</v>
       </c>
       <c r="G6" s="10">
         <v>11623753</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I6" s="1">
@@ -1000,14 +1034,12 @@
         <v>995283</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="0"/>
         <v>51893</v>
       </c>
       <c r="G7" s="10">
         <v>2039011</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I7" s="1">
@@ -1037,14 +1069,12 @@
         <v>785747</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="0"/>
         <v>13057</v>
       </c>
       <c r="G8" s="10">
         <v>1428738</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I8" s="1">
@@ -1074,14 +1104,12 @@
         <v>105716</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="0"/>
         <v>4351</v>
       </c>
       <c r="G9" s="10">
         <v>356045</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="1">
@@ -1111,14 +1139,12 @@
         <v>2212324</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="0"/>
         <v>95874</v>
       </c>
       <c r="G10" s="10">
         <v>5627494</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I10" s="1">
@@ -1148,14 +1174,12 @@
         <v>1140869</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="G11" s="10">
         <v>2960763</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I11" s="1">
@@ -1185,14 +1209,12 @@
         <v>261884</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="0"/>
         <v>6243</v>
       </c>
       <c r="G12" s="10">
         <v>416570</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="1">
@@ -1222,14 +1244,12 @@
         <v>171060</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="10">
         <v>572426</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1259,14 +1279,12 @@
         <v>2675273</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="0"/>
         <v>41716</v>
       </c>
       <c r="G14" s="10">
         <v>4988665</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I14" s="1">
@@ -1296,14 +1314,12 @@
         <v>999082</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="0"/>
         <v>35470</v>
       </c>
       <c r="G15" s="10">
         <v>2416251</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I15" s="1">
@@ -1333,14 +1349,12 @@
         <v>624620</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="0"/>
         <v>10888</v>
       </c>
       <c r="G16" s="10">
         <v>1458161</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I16" s="1">
@@ -1370,14 +1384,12 @@
         <v>386970</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="0"/>
         <v>45619</v>
       </c>
       <c r="G17" s="10">
         <v>1156383</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I17" s="1">
@@ -1407,14 +1419,12 @@
         <v>602085</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="0"/>
         <v>15779</v>
       </c>
       <c r="G18" s="10">
         <v>1635243</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I18" s="1">
@@ -1444,14 +1454,12 @@
         <v>478182</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="10">
         <v>1258615</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I19" s="1">
@@ -1481,14 +1489,12 @@
         <v>418380</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="0"/>
         <v>8586</v>
       </c>
       <c r="G20" s="10">
         <v>710176</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="1">
@@ -1518,14 +1524,12 @@
         <v>1310791</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="0"/>
         <v>46497</v>
       </c>
       <c r="G21" s="10">
         <v>2253520</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I21" s="1">
@@ -1555,14 +1559,12 @@
         <v>2059984</v>
       </c>
       <c r="F22" s="10">
-        <f t="shared" si="0"/>
         <v>432232</v>
       </c>
       <c r="G22" s="10">
         <v>2927455</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="1">
@@ -1592,14 +1594,12 @@
         <v>2242435</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="0"/>
         <v>100300</v>
       </c>
       <c r="G23" s="10">
         <v>4631329</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I23" s="1">
@@ -1629,14 +1629,12 @@
         <v>1399624</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="0"/>
         <v>85963</v>
       </c>
       <c r="G24" s="10">
         <v>2721681</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I24" s="1">
@@ -1666,14 +1664,12 @@
         <v>334605</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="0"/>
         <v>123009</v>
       </c>
       <c r="G25" s="10">
         <v>1116203</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I25" s="1">
@@ -1703,14 +1699,12 @@
         <v>1192674</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="0"/>
         <v>44582</v>
       </c>
       <c r="G26" s="10">
         <v>2667023</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I26" s="1">
@@ -1740,14 +1734,12 @@
         <v>145606</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="0"/>
         <v>12548</v>
       </c>
       <c r="G27" s="10">
         <v>444230</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="1">
@@ -1777,14 +1769,12 @@
         <v>230697</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="0"/>
         <v>19160</v>
       </c>
       <c r="G28" s="10">
         <v>764972</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I28" s="1">
@@ -1814,14 +1804,12 @@
         <v>333912</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="0"/>
         <v>36810</v>
       </c>
       <c r="G29" s="10">
         <v>791433</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I29" s="1">
@@ -1851,14 +1839,12 @@
         <v>243506</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="0"/>
         <v>12036</v>
       </c>
       <c r="G30" s="10">
         <v>651566</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I30" s="1">
@@ -1888,14 +1874,12 @@
         <v>1721392</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="0"/>
         <v>48419</v>
       </c>
       <c r="G31" s="10">
         <v>3284595</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I31" s="1">
@@ -1925,14 +1909,12 @@
         <v>384900</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="0"/>
         <v>194</v>
       </c>
       <c r="G32" s="10">
         <v>742899</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I32" s="1">
@@ -1962,14 +1944,12 @@
         <v>3457124</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="0"/>
         <v>1781388</v>
       </c>
       <c r="G33" s="10">
         <v>7447803</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I33" s="1">
@@ -1999,14 +1979,12 @@
         <v>1669864</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="G34" s="10">
         <v>3413071</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I34" s="1">
@@ -2036,14 +2014,12 @@
         <v>185130</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="10">
         <v>310814</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="1">
@@ -2073,14 +2049,12 @@
         <v>2514613</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="0"/>
         <v>18771</v>
       </c>
       <c r="G36" s="10">
         <v>5183506</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I36" s="1">
@@ -2110,14 +2084,12 @@
         <v>389029</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="0"/>
         <v>110548</v>
       </c>
       <c r="G37" s="10">
         <v>1374610</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I37" s="1">
@@ -2147,14 +2119,12 @@
         <v>951688</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="0"/>
         <v>59073</v>
       </c>
       <c r="G38" s="10">
         <v>1772306</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I38" s="1">
@@ -2184,14 +2154,12 @@
         <v>2478239</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="0"/>
         <v>107819</v>
       </c>
       <c r="G39" s="10">
         <v>5151135</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I39" s="1">
@@ -2221,14 +2189,12 @@
         <v>279315</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="0"/>
         <v>9902</v>
       </c>
       <c r="G40" s="10">
         <v>402175</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="1">
@@ -2258,14 +2224,12 @@
         <v>486479</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="0"/>
         <v>39471</v>
       </c>
       <c r="G41" s="10">
         <v>1439118</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I41" s="1">
@@ -2295,14 +2259,12 @@
         <v>207837</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="0"/>
         <v>2808</v>
       </c>
       <c r="G42" s="10">
         <v>389468</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="1">
@@ -2332,14 +2294,12 @@
         <v>1031959</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="0"/>
         <v>25958</v>
       </c>
       <c r="G43" s="10">
         <v>2218738</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I43" s="1">
@@ -2369,14 +2329,12 @@
         <v>2713968</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="0"/>
         <v>232101</v>
       </c>
       <c r="G44" s="10">
         <v>6958603</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I44" s="1">
@@ -2406,14 +2364,12 @@
         <v>361628</v>
       </c>
       <c r="F45" s="10">
-        <f t="shared" si="0"/>
         <v>26826</v>
       </c>
       <c r="G45" s="10">
         <v>908857</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I45" s="1">
@@ -2443,14 +2399,12 @@
         <v>21684</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="0"/>
         <v>209053</v>
       </c>
       <c r="G46" s="10">
         <v>305008</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="1">
@@ -2480,14 +2434,12 @@
         <v>1023187</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="0"/>
         <v>163398</v>
       </c>
       <c r="G47" s="10">
         <v>3004007</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I47" s="1">
@@ -2517,14 +2469,12 @@
         <v>1608751</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="0"/>
         <v>25751</v>
       </c>
       <c r="G48" s="10">
         <v>2729995</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I48" s="1">
@@ -2554,14 +2504,12 @@
         <v>415396</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="0"/>
         <v>3218</v>
       </c>
       <c r="G49" s="10">
         <v>721656</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I49" s="1">
@@ -2591,14 +2539,12 @@
         <v>1368537</v>
       </c>
       <c r="F50" s="10">
-        <f t="shared" si="0"/>
         <v>72257</v>
       </c>
       <c r="G50" s="10">
         <v>2821613</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I50" s="1">
@@ -2628,14 +2574,12 @@
         <v>99989</v>
       </c>
       <c r="F51" s="10">
-        <f t="shared" si="0"/>
         <v>7067</v>
       </c>
       <c r="G51" s="10">
         <v>239163</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I51" s="1">
@@ -2645,6 +2589,1672 @@
         <v>0</v>
       </c>
       <c r="K51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="13">
+        <f>SUM(E2:E51)/SUM(D2:E51)</f>
+        <v>0.48631600982469492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF2FA4B-3C99-3D4C-8D22-3BE712CC38BC}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1079657</v>
+      </c>
+      <c r="D2">
+        <v>708425</v>
+      </c>
+      <c r="E2">
+        <v>4677</v>
+      </c>
+      <c r="F2">
+        <v>1792759</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>213216</v>
+      </c>
+      <c r="D3">
+        <v>67074</v>
+      </c>
+      <c r="E3">
+        <v>19706</v>
+      </c>
+      <c r="F3">
+        <v>299996</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1127591</v>
+      </c>
+      <c r="D4">
+        <v>597526</v>
+      </c>
+      <c r="E4">
+        <v>146328</v>
+      </c>
+      <c r="F4">
+        <v>1871445</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>357840</v>
+      </c>
+      <c r="D5">
+        <v>426380</v>
+      </c>
+      <c r="E5">
+        <v>7020</v>
+      </c>
+      <c r="F5">
+        <v>791240</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5030821</v>
+      </c>
+      <c r="D6">
+        <v>6223698</v>
+      </c>
+      <c r="E6">
+        <v>369234</v>
+      </c>
+      <c r="F6">
+        <v>11623753</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>991835</v>
+      </c>
+      <c r="D7">
+        <v>995283</v>
+      </c>
+      <c r="E7">
+        <v>51893</v>
+      </c>
+      <c r="F7">
+        <v>2039011</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>629934</v>
+      </c>
+      <c r="D8">
+        <v>785747</v>
+      </c>
+      <c r="E8">
+        <v>13057</v>
+      </c>
+      <c r="F8">
+        <v>1428738</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>245978</v>
+      </c>
+      <c r="D9">
+        <v>105716</v>
+      </c>
+      <c r="E9">
+        <v>4351</v>
+      </c>
+      <c r="F9">
+        <v>356045</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>3319296</v>
+      </c>
+      <c r="D10">
+        <v>2212324</v>
+      </c>
+      <c r="E10">
+        <v>95874</v>
+      </c>
+      <c r="F10">
+        <v>5627494</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1819817</v>
+      </c>
+      <c r="D11">
+        <v>1140869</v>
+      </c>
+      <c r="E11">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>2960763</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>148443</v>
+      </c>
+      <c r="D12">
+        <v>261884</v>
+      </c>
+      <c r="E12">
+        <v>6243</v>
+      </c>
+      <c r="F12">
+        <v>416570</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>401366</v>
+      </c>
+      <c r="D13">
+        <v>171060</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>572426</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>2271676</v>
+      </c>
+      <c r="D14">
+        <v>2675273</v>
+      </c>
+      <c r="E14">
+        <v>41716</v>
+      </c>
+      <c r="F14">
+        <v>4988665</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1381699</v>
+      </c>
+      <c r="D15">
+        <v>999082</v>
+      </c>
+      <c r="E15">
+        <v>35470</v>
+      </c>
+      <c r="F15">
+        <v>2416251</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>822653</v>
+      </c>
+      <c r="D16">
+        <v>624620</v>
+      </c>
+      <c r="E16">
+        <v>10888</v>
+      </c>
+      <c r="F16">
+        <v>1458161</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>723794</v>
+      </c>
+      <c r="D17">
+        <v>386970</v>
+      </c>
+      <c r="E17">
+        <v>45619</v>
+      </c>
+      <c r="F17">
+        <v>1156383</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>1017379</v>
+      </c>
+      <c r="D18">
+        <v>602085</v>
+      </c>
+      <c r="E18">
+        <v>15779</v>
+      </c>
+      <c r="F18">
+        <v>1635243</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>780433</v>
+      </c>
+      <c r="D19">
+        <v>478182</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1258615</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>283210</v>
+      </c>
+      <c r="D20">
+        <v>418380</v>
+      </c>
+      <c r="E20">
+        <v>8586</v>
+      </c>
+      <c r="F20">
+        <v>710176</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>896232</v>
+      </c>
+      <c r="D21">
+        <v>1310791</v>
+      </c>
+      <c r="E21">
+        <v>46497</v>
+      </c>
+      <c r="F21">
+        <v>2253520</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>435239</v>
+      </c>
+      <c r="D22">
+        <v>2059984</v>
+      </c>
+      <c r="E22">
+        <v>432232</v>
+      </c>
+      <c r="F22">
+        <v>2927455</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>2288594</v>
+      </c>
+      <c r="D23">
+        <v>2242435</v>
+      </c>
+      <c r="E23">
+        <v>100300</v>
+      </c>
+      <c r="F23">
+        <v>4631329</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1236094</v>
+      </c>
+      <c r="D24">
+        <v>1399624</v>
+      </c>
+      <c r="E24">
+        <v>85963</v>
+      </c>
+      <c r="F24">
+        <v>2721681</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>658589</v>
+      </c>
+      <c r="D25">
+        <v>334605</v>
+      </c>
+      <c r="E25">
+        <v>123009</v>
+      </c>
+      <c r="F25">
+        <v>1116203</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>1429767</v>
+      </c>
+      <c r="D26">
+        <v>1192674</v>
+      </c>
+      <c r="E26">
+        <v>44582</v>
+      </c>
+      <c r="F26">
+        <v>2667023</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>286076</v>
+      </c>
+      <c r="D27">
+        <v>145606</v>
+      </c>
+      <c r="E27">
+        <v>12548</v>
+      </c>
+      <c r="F27">
+        <v>444230</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>515115</v>
+      </c>
+      <c r="D28">
+        <v>230697</v>
+      </c>
+      <c r="E28">
+        <v>19160</v>
+      </c>
+      <c r="F28">
+        <v>764972</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>420711</v>
+      </c>
+      <c r="D29">
+        <v>333912</v>
+      </c>
+      <c r="E29">
+        <v>36810</v>
+      </c>
+      <c r="F29">
+        <v>791433</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>396024</v>
+      </c>
+      <c r="D30">
+        <v>243506</v>
+      </c>
+      <c r="E30">
+        <v>12036</v>
+      </c>
+      <c r="F30">
+        <v>651566</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>1514784</v>
+      </c>
+      <c r="D31">
+        <v>1721392</v>
+      </c>
+      <c r="E31">
+        <v>48419</v>
+      </c>
+      <c r="F31">
+        <v>3284595</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>357805</v>
+      </c>
+      <c r="D32">
+        <v>384900</v>
+      </c>
+      <c r="E32">
+        <v>194</v>
+      </c>
+      <c r="F32">
+        <v>742899</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>2209291</v>
+      </c>
+      <c r="D33">
+        <v>3457124</v>
+      </c>
+      <c r="E33">
+        <v>1781388</v>
+      </c>
+      <c r="F33">
+        <v>7447803</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>1743131</v>
+      </c>
+      <c r="D34">
+        <v>1669864</v>
+      </c>
+      <c r="E34">
+        <v>76</v>
+      </c>
+      <c r="F34">
+        <v>3413071</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>125684</v>
+      </c>
+      <c r="D35">
+        <v>185130</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>310814</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>2650122</v>
+      </c>
+      <c r="D36">
+        <v>2514613</v>
+      </c>
+      <c r="E36">
+        <v>18771</v>
+      </c>
+      <c r="F36">
+        <v>5183506</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>875033</v>
+      </c>
+      <c r="D37">
+        <v>389029</v>
+      </c>
+      <c r="E37">
+        <v>110548</v>
+      </c>
+      <c r="F37">
+        <v>1374610</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>761545</v>
+      </c>
+      <c r="D38">
+        <v>951688</v>
+      </c>
+      <c r="E38">
+        <v>59073</v>
+      </c>
+      <c r="F38">
+        <v>1772306</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>2565077</v>
+      </c>
+      <c r="D39">
+        <v>2478239</v>
+      </c>
+      <c r="E39">
+        <v>107819</v>
+      </c>
+      <c r="F39">
+        <v>5151135</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>112958</v>
+      </c>
+      <c r="D40">
+        <v>279315</v>
+      </c>
+      <c r="E40">
+        <v>9902</v>
+      </c>
+      <c r="F40">
+        <v>402175</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>913168</v>
+      </c>
+      <c r="D41">
+        <v>486479</v>
+      </c>
+      <c r="E41">
+        <v>39471</v>
+      </c>
+      <c r="F41">
+        <v>1439118</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>178823</v>
+      </c>
+      <c r="D42">
+        <v>207837</v>
+      </c>
+      <c r="E42">
+        <v>2808</v>
+      </c>
+      <c r="F42">
+        <v>389468</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>1160821</v>
+      </c>
+      <c r="D43">
+        <v>1031959</v>
+      </c>
+      <c r="E43">
+        <v>25958</v>
+      </c>
+      <c r="F43">
+        <v>2218738</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>4012534</v>
+      </c>
+      <c r="D44">
+        <v>2713968</v>
+      </c>
+      <c r="E44">
+        <v>232101</v>
+      </c>
+      <c r="F44">
+        <v>6958603</v>
+      </c>
+      <c r="G44">
+        <v>21</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>520403</v>
+      </c>
+      <c r="D45">
+        <v>361628</v>
+      </c>
+      <c r="E45">
+        <v>26826</v>
+      </c>
+      <c r="F45">
+        <v>908857</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>74271</v>
+      </c>
+      <c r="D46">
+        <v>21684</v>
+      </c>
+      <c r="E46">
+        <v>209053</v>
+      </c>
+      <c r="F46">
+        <v>305008</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>1817422</v>
+      </c>
+      <c r="D47">
+        <v>1023187</v>
+      </c>
+      <c r="E47">
+        <v>163398</v>
+      </c>
+      <c r="F47">
+        <v>3004007</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>1095493</v>
+      </c>
+      <c r="D48">
+        <v>1608751</v>
+      </c>
+      <c r="E48">
+        <v>25751</v>
+      </c>
+      <c r="F48">
+        <v>2729995</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>303042</v>
+      </c>
+      <c r="D49">
+        <v>415396</v>
+      </c>
+      <c r="E49">
+        <v>3218</v>
+      </c>
+      <c r="F49">
+        <v>721656</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>1380819</v>
+      </c>
+      <c r="D50">
+        <v>1368537</v>
+      </c>
+      <c r="E50">
+        <v>72257</v>
+      </c>
+      <c r="F50">
+        <v>2821613</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>132107</v>
+      </c>
+      <c r="D51">
+        <v>99989</v>
+      </c>
+      <c r="E51">
+        <v>7067</v>
+      </c>
+      <c r="F51">
+        <v>239163</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>1</v>
       </c>
     </row>
